--- a/doc/04_外部設計書_CurrentDirectory-ログイン.xlsx
+++ b/doc/04_外部設計書_CurrentDirectory-ログイン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C5BB6F-A26F-41F7-B9A4-E7C7EB5ABF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A096B62-2A1F-4DB2-9D47-D8D2D82A1B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -397,11 +397,38 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>a href</t>
+    <t>Submit</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Submit</t>
+    <t>href</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>span</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>半角英数のみ</t>
+    <rPh sb="0" eb="4">
+      <t>ハンカクエイスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>英数大小文字一文字以上ずつ</t>
+    <rPh sb="0" eb="2">
+      <t>エイスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>イチモジイジョウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1307,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="AD82" sqref="AD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4729,7 +4756,9 @@
       </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
-      <c r="AD80" s="16"/>
+      <c r="AD80" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="AE80" s="17"/>
       <c r="AF80" s="17"/>
       <c r="AG80" s="17"/>
@@ -4789,7 +4818,9 @@
       </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
-      <c r="AD81" s="16"/>
+      <c r="AD81" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="AE81" s="17"/>
       <c r="AF81" s="17"/>
       <c r="AG81" s="17"/>
@@ -4819,7 +4850,9 @@
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
-      <c r="L82" s="16"/>
+      <c r="L82" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16"/>
@@ -4870,7 +4903,7 @@
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
@@ -4920,7 +4953,7 @@
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
